--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_129__Reeval_Sobol_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_129__Reeval_Sobol_Modell_1.1.xlsx
@@ -6133,10 +6133,10 @@
                   <c:v>38.32356643676758</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1950829327106476</c:v>
+                  <c:v>0.1950840801000595</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43.45989990234375</c:v>
+                  <c:v>43.45990371704102</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>44.52740097045898</c:v>
@@ -6148,7 +6148,7 @@
                   <c:v>45.66443252563477</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.4242405593395233</c:v>
+                  <c:v>0.424241691827774</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.3614023625850677</c:v>
@@ -6175,7 +6175,7 @@
                   <c:v>46.82347869873047</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>46.80640411376953</c:v>
+                  <c:v>46.80640029907227</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>4.37758731842041</c:v>
@@ -6184,10 +6184,10 @@
                   <c:v>40.15465545654297</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.3633604049682617</c:v>
+                  <c:v>-0.3633615672588348</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42.95792770385742</c:v>
+                  <c:v>42.95793151855469</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>46.6729621887207</c:v>
@@ -6199,13 +6199,13 @@
                   <c:v>0.3973393738269806</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.29749608039856</c:v>
+                  <c:v>1.297493815422058</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>46.14986801147461</c:v>
+                  <c:v>46.14986419677734</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41.42942047119141</c:v>
+                  <c:v>41.42942810058594</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45.96358108520508</c:v>
@@ -6226,13 +6226,13 @@
                   <c:v>0.3614023625850677</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.9571846127510071</c:v>
+                  <c:v>-0.9571822881698608</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.6469939947128296</c:v>
+                  <c:v>0.6469962596893311</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>49.07542419433594</c:v>
+                  <c:v>49.07541656494141</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45.84644317626953</c:v>
@@ -6244,25 +6244,25 @@
                   <c:v>0.3614023625850677</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>38.59283828735352</c:v>
+                  <c:v>38.59284210205078</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>49.84656524658203</c:v>
+                  <c:v>49.84656143188477</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>48.70849990844727</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.0274870153516531</c:v>
+                  <c:v>-0.02748587727546692</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45.52425384521484</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>39.58277893066406</c:v>
+                  <c:v>39.58277130126953</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>38.15187072753906</c:v>
+                  <c:v>38.15187454223633</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>41.81061935424805</c:v>
@@ -6271,7 +6271,7 @@
                   <c:v>1.399014711380005</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>34.99064636230469</c:v>
+                  <c:v>34.99065017700195</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>-1.088299870491028</c:v>
@@ -6280,7 +6280,7 @@
                   <c:v>0.3614023625850677</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>47.13258361816406</c:v>
+                  <c:v>47.1325798034668</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>49.6580924987793</c:v>
@@ -6289,7 +6289,7 @@
                   <c:v>0.3614023625850677</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.09811988472938538</c:v>
+                  <c:v>0.09812216460704803</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>48.65521621704102</c:v>
@@ -6307,7 +6307,7 @@
                   <c:v>0.3614023625850677</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>47.56364059448242</c:v>
+                  <c:v>47.56364440917969</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>45.96112823486328</c:v>
@@ -6331,7 +6331,7 @@
                   <c:v>0.3614023625850677</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5.423843383789062</c:v>
+                  <c:v>5.42384147644043</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>43.94484329223633</c:v>
@@ -6343,7 +6343,7 @@
                   <c:v>0.3614023625850677</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.2208022177219391</c:v>
+                  <c:v>0.2208010852336884</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>43.6186637878418</c:v>
@@ -6373,16 +6373,16 @@
                   <c:v>42.55774688720703</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>33.09299850463867</c:v>
+                  <c:v>33.09300231933594</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>44.15078735351562</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-0.3889406621456146</c:v>
+                  <c:v>-0.3889429271221161</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>46.91976928710938</c:v>
+                  <c:v>46.91976165771484</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>0.3614023625850677</c:v>
@@ -6391,7 +6391,7 @@
                   <c:v>0.4323908090591431</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>46.65288543701172</c:v>
+                  <c:v>46.65288162231445</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>46.62898635864258</c:v>
@@ -6400,7 +6400,7 @@
                   <c:v>38.80123901367188</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.2036024630069733</c:v>
+                  <c:v>0.203603595495224</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>0.7240561246871948</c:v>
@@ -6424,7 +6424,7 @@
                   <c:v>43.85603332519531</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.4355478882789612</c:v>
+                  <c:v>0.4355490207672119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7279,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1950829327106476</v>
+        <v>0.1950840801000595</v>
       </c>
       <c r="G7">
         <v>77</v>
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>43.45989990234375</v>
+        <v>43.45990371704102</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4242405593395233</v>
+        <v>0.424241691827774</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7571,7 +7571,7 @@
         <v>51.6611</v>
       </c>
       <c r="F21">
-        <v>46.80640411376953</v>
+        <v>46.80640029907227</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>-0.3633604049682617</v>
+        <v>-0.3633615672588348</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>45.2847</v>
       </c>
       <c r="F25">
-        <v>42.95792770385742</v>
+        <v>42.95793151855469</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.29749608039856</v>
+        <v>1.297493815422058</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>51.3308</v>
       </c>
       <c r="F30">
-        <v>46.14986801147461</v>
+        <v>46.14986419677734</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>51.9912</v>
       </c>
       <c r="F31">
-        <v>41.42942047119141</v>
+        <v>41.42942810058594</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>-0.9571846127510071</v>
+        <v>-0.9571822881698608</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0.6469939947128296</v>
+        <v>0.6469962596893311</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>50.7435</v>
       </c>
       <c r="F40">
-        <v>49.07542419433594</v>
+        <v>49.07541656494141</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>38.59283828735352</v>
+        <v>38.59284210205078</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>61.4498</v>
       </c>
       <c r="F45">
-        <v>49.84656524658203</v>
+        <v>49.84656143188477</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>-0.0274870153516531</v>
+        <v>-0.02748587727546692</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>32.9114</v>
       </c>
       <c r="F49">
-        <v>39.58277893066406</v>
+        <v>39.58277130126953</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>38.15187072753906</v>
+        <v>38.15187454223633</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>34.2886</v>
       </c>
       <c r="F53">
-        <v>34.99064636230469</v>
+        <v>34.99065017700195</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>48.7071</v>
       </c>
       <c r="F56">
-        <v>47.13258361816406</v>
+        <v>47.1325798034668</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>46.476</v>
       </c>
       <c r="F59">
-        <v>0.09811988472938538</v>
+        <v>0.09812216460704803</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>51.173</v>
       </c>
       <c r="F65">
-        <v>47.56364059448242</v>
+        <v>47.56364440917969</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>5.423843383789062</v>
+        <v>5.42384147644043</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>0.2208022177219391</v>
+        <v>0.2208010852336884</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>26.1928</v>
       </c>
       <c r="F87">
-        <v>33.09299850463867</v>
+        <v>33.09300231933594</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>-0.3889406621456146</v>
+        <v>-0.3889429271221161</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>50.182</v>
       </c>
       <c r="F90">
-        <v>46.91976928710938</v>
+        <v>46.91976165771484</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>48.8924</v>
       </c>
       <c r="F93">
-        <v>46.65288543701172</v>
+        <v>46.65288162231445</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -9071,7 +9071,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>0.2036024630069733</v>
+        <v>0.203603595495224</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -9231,7 +9231,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>0.4355478882789612</v>
+        <v>0.4355490207672119</v>
       </c>
     </row>
     <row r="105" spans="1:6">
